--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3371.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3371.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.232271140384444</v>
+        <v>4.08521032333374</v>
       </c>
       <c r="B1">
-        <v>2.590824484261876</v>
+        <v>2.625478982925415</v>
       </c>
       <c r="C1">
-        <v>4.642844170292415</v>
+        <v>1.930364012718201</v>
       </c>
       <c r="D1">
-        <v>3.098993469583473</v>
+        <v>1.788726091384888</v>
       </c>
       <c r="E1">
-        <v>1.170321388076399</v>
+        <v>1.664858341217041</v>
       </c>
     </row>
   </sheetData>
